--- a/biology/Histoire de la zoologie et de la botanique/Jason_Richard_Swallen/Jason_Richard_Swallen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jason_Richard_Swallen/Jason_Richard_Swallen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jason Richard Swallen (1er mai 1903 - 22 avril 1991) est un botaniste américain,   spécialiste des graminées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jason Richard Swallen (1er mai 1903 - 22 avril 1991) est un botaniste américain,   spécialiste des graminées.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Alliance (Ohio), Jason Richard Swallen est diplômé de l'université wesleyenne de l'Ohio (AB) en 1924 et du collège d'agriculture de l'université d'État du Kansas (MS 1925). Il a passé deux étés à la station biologique de l'université du Michigan, puis à partir de 1925, il a travaillé en tant que botaniste au département américain de l'Agriculture (USDA), sous la direction de l'agrologiste en chef de l'USDA,  Albert Spear Hitchcock et après la mort subite de ce dernier en 1935, sous la direction de Mary Agnes Chase.
 Jason Richard Swallen a pratiqué la botanique en Californie en 1927, puis dans une zone élargie allant du sud-ouest des États-Unis au Yucatán au Mexique en 1928, 1931 et 1932. En 1936, il publia ses travaux sur les graminées du Honduras et du Petén (Guatemala), et fut promu botaniste associé. De 1943 à 1945, il a servi au Brésil en tant qu'officier de production agricole dans l'agence américaine du coordinateur des affaires interaméricaines. En 1947, il est nommé conservateur de la division des Graminées de l'institution Smithsonian, dont il présida le département de botanique de 1950 jusqu'à sa retraite en 1965. En retraite, il vécut en Floride, au Maryland et dans l'Ohio.
